--- a/biology/Médecine/Référendum_italien_de_2005/Référendum_italien_de_2005.xlsx
+++ b/biology/Médecine/Référendum_italien_de_2005/Référendum_italien_de_2005.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9f%C3%A9rendum_italien_de_2005</t>
+          <t>Référendum_italien_de_2005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les Italiens sont appelés à se prononcer par référendum le 12 juin 2005 sur l'abrogation de quatre articles d'une loi adoptée par le Parlement en février 2004.
 Par le moyen de cette consultation d'initiative populaire, les électeurs ont la possibilité de l'assouplir sur ses points les plus contestés.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9f%C3%A9rendum_italien_de_2005</t>
+          <t>Référendum_italien_de_2005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Polémique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le président de la Conférence épiscopale italienne, le cardinal Camillo Ruini, a appelé « tous les catholiques à s'abstenir de voter ». En effet, suivant la constitution italienne, si la participation est inférieure à 50 %, la consultation sera considérée comme nulle, objectif affiché du cardinal Ruini. Dans ces conditions, s'abstenir est plus efficace que voter non pour les opposants à cette révision.
 Qui n'obéit pas à la consigne d'abstention n'est pas un vrai catholique, ont averti plusieurs évêques italiens. Le pape pourrait également lancer un message en faveur de l'abstention, « ce qui serait d'une extraordinaire gravité », selon le parlementaire de l'opposition Giorgio Tonini (DS, ex-communiste).
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9f%C3%A9rendum_italien_de_2005</t>
+          <t>Référendum_italien_de_2005</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Résultat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le référendum a échoué lundi 13 juin 2005 en raison du faible taux de participation des électeurs, qui a atteint 25,9 %, selon les résultats définitifs du ministère de l'Intérieur.
 Seul un électeur sur quatre a voté alors que le scrutin était organisé sur deux jours. 50 % des électeurs plus un devaient se prononcer pour que la consultation soit validée.
